--- a/ValueSet-dk-core-MunicipalityCodes.xlsx
+++ b/ValueSet-dk-core-MunicipalityCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-dk-core-MunicipalityCodes.xlsx
+++ b/ValueSet-dk-core-MunicipalityCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-dk-core-MunicipalityCodes.xlsx
+++ b/ValueSet-dk-core-MunicipalityCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
